--- a/biology/Botanique/Scolytus/Scolytus.xlsx
+++ b/biology/Botanique/Scolytus/Scolytus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scolytus est un genre d'insectes de l'ordre des coléoptères (insectes possédant en général deux paires d'ailes incluant entre autres les scarabées, coccinelles, lucanes, chrysomèles, hannetons, charançons et carabes) et de la famille des Curculionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Scolytus amygdali - scolyte de l'amandier
 Scolytus dentatus Bright, 1964
